--- a/xlsx_template/product_test_result2.xlsx
+++ b/xlsx_template/product_test_result2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13920"/>
+    <workbookView windowWidth="28060" windowHeight="11780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -161,8 +161,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +269,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -185,100 +285,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,13 +297,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -319,67 +319,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,109 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,24 +556,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,6 +589,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -604,15 +609,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,13 +637,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,152 +656,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,6 +836,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1166,7 +1169,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1243,7 +1246,7 @@
       <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1432,40 +1435,40 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5" t="e">
-        <f t="shared" ref="J7:Q7" si="2">AVERAGE(J13:J4601)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="5" t="e">
+      <c r="J7" s="12" t="str">
+        <f>IFERROR(STDEV(J13:J4601),"")</f>
+        <v/>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" ref="K7:Q7" si="2">IFERROR(AVERAGE(K13:K4601),"")</f>
+        <v/>
+      </c>
+      <c r="L7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="5" t="e">
+        <v/>
+      </c>
+      <c r="M7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="5" t="e">
+        <v/>
+      </c>
+      <c r="O7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="5" t="e">
+        <v/>
+      </c>
+      <c r="P7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="5" t="e">
+        <v/>
+      </c>
+      <c r="Q7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="R7" s="5"/>
-      <c r="S7" s="13"/>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="5" t="s">
@@ -1479,40 +1482,40 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5" t="e">
-        <f t="shared" ref="J8:Q8" si="3">STDEV(J13:J4601)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="5" t="e">
+      <c r="J8" s="12" t="str">
+        <f>IFERROR(STDEV(J13:J4601),"")</f>
+        <v/>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f>IFERROR(STDEV(K13:K4601),"")</f>
+        <v/>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="shared" ref="L8:Q8" si="3">IFERROR(STDEV(L13:L4601),"")</f>
+        <v/>
+      </c>
+      <c r="M8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="5" t="e">
+        <v/>
+      </c>
+      <c r="O8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="5" t="e">
+        <v/>
+      </c>
+      <c r="P8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="5" t="e">
+        <v/>
+      </c>
+      <c r="Q8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="R8" s="5"/>
-      <c r="S8" s="13"/>
+      <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="5" t="s">
@@ -1526,40 +1529,40 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5" t="e">
-        <f t="shared" ref="J9:Q9" si="4">(J5-J6)/6/J8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="5" t="e">
+      <c r="J9" s="12" t="str">
+        <f t="shared" ref="J9:Q9" si="4">IFERROR((J5-J6)/6/J8,"")</f>
+        <v/>
+      </c>
+      <c r="K9" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="5" t="e">
+        <v/>
+      </c>
+      <c r="L9" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="5" t="e">
+        <v/>
+      </c>
+      <c r="M9" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N9" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="5" t="e">
+        <v/>
+      </c>
+      <c r="O9" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" s="5" t="e">
+        <v/>
+      </c>
+      <c r="P9" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="5" t="e">
+        <v/>
+      </c>
+      <c r="Q9" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="R9" s="5"/>
-      <c r="S9" s="13"/>
+      <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="5" t="s">
@@ -1573,40 +1576,40 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5" t="e">
-        <f t="shared" ref="J10:Q10" si="5">(1-J11)*J9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="5" t="e">
+      <c r="J10" s="12" t="str">
+        <f>IFERROR((1-J11)*J9,"")</f>
+        <v/>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f>IFERROR((1-K11)*K9,"")</f>
+        <v/>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="shared" ref="L10:Q10" si="5">IFERROR((1-L11)*L9,"")</f>
+        <v/>
+      </c>
+      <c r="M10" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N10" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="5" t="e">
+        <v/>
+      </c>
+      <c r="O10" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="5" t="e">
+        <v/>
+      </c>
+      <c r="P10" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="5" t="e">
+        <v/>
+      </c>
+      <c r="Q10" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="R10" s="5"/>
-      <c r="S10" s="13"/>
+      <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="5" t="s">
@@ -1620,40 +1623,40 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5" t="e">
-        <f t="shared" ref="J11:Q11" si="6">ABS(J3-J7)/J4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="5" t="e">
+      <c r="J11" s="12" t="str">
+        <f>IFERROR(ABS(J3-J7)/J4,"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f>IFERROR(ABS(K3-K7)/K4,"")</f>
+        <v/>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="shared" ref="L11:Q11" si="6">IFERROR(ABS(L3-L7)/L4,"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N11" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="5" t="e">
+        <v/>
+      </c>
+      <c r="O11" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="5" t="e">
+        <v/>
+      </c>
+      <c r="P11" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" s="5" t="e">
+        <v/>
+      </c>
+      <c r="Q11" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="R11" s="5"/>
-      <c r="S11" s="13"/>
+      <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="5" t="s">
@@ -1667,46 +1670,43 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5" t="e">
-        <f t="shared" ref="J12:Q12" si="7">IF(J$11&gt;=1.67,"A+",IF(J$11&gt;=1.33,"A",IF(J$11&gt;=1,"B",IF(J$11&gt;=0.67,"C","D"))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="5" t="e">
+      <c r="J12" s="12" t="str">
+        <f t="shared" ref="J12:Q12" si="7">IF(J$10="","",IF(J$10&gt;=1.67,"A+",IF(J$10&gt;=1.33,"A",IF(J$10&gt;=1,"B",IF(J$10&gt;=0.67,"C","D")))))</f>
+        <v/>
+      </c>
+      <c r="K12" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="5" t="e">
+        <v/>
+      </c>
+      <c r="L12" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="5" t="e">
+        <v/>
+      </c>
+      <c r="M12" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N12" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="5" t="e">
+        <v/>
+      </c>
+      <c r="O12" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="5" t="e">
+        <v/>
+      </c>
+      <c r="P12" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="5" t="e">
+        <v/>
+      </c>
+      <c r="Q12" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="R12" s="5"/>
-      <c r="S12" s="13"/>
+      <c r="S12" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="J7" evalError="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/xlsx_template/product_test_result2.xlsx
+++ b/xlsx_template/product_test_result2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11780"/>
+    <workbookView windowWidth="28060" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,8 +118,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -155,7 +155,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,17 +247,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,60 +285,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -260,43 +297,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -313,25 +313,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,13 +445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,31 +469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,103 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,11 +556,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,11 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,24 +634,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,94 +656,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,52 +752,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1436,7 +1436,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
       <c r="J7" s="12" t="str">
-        <f>IFERROR(STDEV(J13:J4601),"")</f>
+        <f>IFERROR(AVERAGE(J13:J4601),"")</f>
         <v/>
       </c>
       <c r="K7" s="12" t="str">

--- a/xlsx_template/product_test_result2.xlsx
+++ b/xlsx_template/product_test_result2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13920"/>
+    <workbookView windowWidth="27900" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>胶料名称</t>
   </si>
@@ -67,6 +67,34 @@
     <t>TC90</t>
   </si>
   <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>钢拔</t>
+  </si>
+  <si>
+    <t>M300</t>
+  </si>
+  <si>
+    <r>
+      <t>伸长率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <t>扯断强度</t>
+  </si>
+  <si>
+    <t>永久变形</t>
+  </si>
+  <si>
     <t>检测状态</t>
   </si>
   <si>
@@ -80,6 +108,18 @@
   </si>
   <si>
     <t>MV</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>MPa</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
   <si>
     <t>中央值</t>
@@ -117,12 +157,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +194,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体-简"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -162,21 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +221,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -198,34 +320,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,66 +336,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -313,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,6 +618,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -583,21 +643,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,17 +662,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,11 +682,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,152 +701,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +884,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1164,12 +1218,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1186,12 +1240,12 @@
     <col min="15" max="15" width="6.59821428571429" style="2" customWidth="1"/>
     <col min="16" max="16" width="7.69642857142857" style="2" customWidth="1"/>
     <col min="17" max="17" width="6.59821428571429" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.8660714285714" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.75" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.14285714285714" style="1"/>
+    <col min="18" max="25" width="10.8660714285714" style="2" customWidth="1"/>
+    <col min="26" max="26" width="11.75" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1243,14 +1297,35 @@
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="15">
+        <v>1</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
+    <row r="2" s="1" customFormat="1" spans="1:26">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1261,31 +1336,56 @@
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="P2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:19">
+    <row r="3" s="1" customFormat="1" spans="1:26">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1327,12 +1427,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="R3" s="10">
+        <f t="shared" ref="R3:X3" si="1">(R5+R6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:19">
+    <row r="4" s="1" customFormat="1" spans="1:26">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1343,43 +1471,71 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
       <c r="J4" s="10">
-        <f t="shared" ref="J4:Q4" si="1">J5-J3</f>
+        <f t="shared" ref="J4:Q4" si="2">J5-J3</f>
         <v>0</v>
       </c>
       <c r="K4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q4" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" ref="R4:X4" si="3">R5-R3</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:19">
+    <row r="5" s="1" customFormat="1" spans="1:26">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -1399,10 +1555,17 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:19">
+    <row r="6" s="1" customFormat="1" spans="1:26">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1422,10 +1585,17 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:26">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1440,39 +1610,67 @@
         <v/>
       </c>
       <c r="K7" s="12" t="str">
-        <f t="shared" ref="K7:Q7" si="2">IFERROR(AVERAGE(K13:K4601),"")</f>
+        <f t="shared" ref="K7:Q7" si="4">IFERROR(AVERAGE(K13:K4601),"")</f>
         <v/>
       </c>
       <c r="L7" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M7" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N7" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O7" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P7" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q7" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="14"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R7" s="12" t="str">
+        <f t="shared" ref="R7:X7" si="5">IFERROR(AVERAGE(R13:R4601),"")</f>
+        <v/>
+      </c>
+      <c r="S7" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T7" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U7" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V7" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W7" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X7" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="17"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:26">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1491,35 +1689,63 @@
         <v/>
       </c>
       <c r="L8" s="12" t="str">
-        <f t="shared" ref="L8:Q8" si="3">IFERROR(STDEV(L13:L4601),"")</f>
+        <f t="shared" ref="L8:Q8" si="6">IFERROR(STDEV(L13:L4601),"")</f>
         <v/>
       </c>
       <c r="M8" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N8" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O8" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P8" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q8" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="14"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R8" s="12" t="str">
+        <f t="shared" ref="R8:X8" si="7">IFERROR(STDEV(R13:R4601),"")</f>
+        <v/>
+      </c>
+      <c r="S8" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T8" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U8" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V8" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W8" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X8" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="17"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:26">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1530,43 +1756,71 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
       <c r="J9" s="12" t="str">
-        <f t="shared" ref="J9:Q9" si="4">IFERROR((J5-J6)/6/J8,"")</f>
+        <f t="shared" ref="J9:Q9" si="8">IFERROR((J5-J6)/6/J8,"")</f>
         <v/>
       </c>
       <c r="K9" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L9" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M9" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N9" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O9" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P9" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q9" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="14"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R9" s="12" t="str">
+        <f t="shared" ref="R9:X9" si="9">IFERROR((R5-R6)/6/R8,"")</f>
+        <v/>
+      </c>
+      <c r="S9" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T9" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U9" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V9" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W9" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X9" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="17"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:26">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -1585,35 +1839,63 @@
         <v/>
       </c>
       <c r="L10" s="12" t="str">
-        <f t="shared" ref="L10:Q10" si="5">IFERROR((1-L11)*L9,"")</f>
+        <f t="shared" ref="L10:Q10" si="10">IFERROR((1-L11)*L9,"")</f>
         <v/>
       </c>
       <c r="M10" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N10" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O10" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P10" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q10" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="14"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="R10" s="12" t="str">
+        <f t="shared" ref="R10:X10" si="11">IFERROR((1-R11)*R9,"")</f>
+        <v/>
+      </c>
+      <c r="S10" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="T10" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U10" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V10" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="W10" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="X10" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="17"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:26">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1632,35 +1914,63 @@
         <v/>
       </c>
       <c r="L11" s="12" t="str">
-        <f t="shared" ref="L11:Q11" si="6">IFERROR(ABS(L3-L7)/L4,"")</f>
+        <f t="shared" ref="L11:Q11" si="12">IFERROR(ABS(L3-L7)/L4,"")</f>
         <v/>
       </c>
       <c r="M11" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N11" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O11" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="P11" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q11" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="14"/>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="R11" s="12" t="str">
+        <f t="shared" ref="R11:X11" si="13">IFERROR(ABS(R3-R7)/R4,"")</f>
+        <v/>
+      </c>
+      <c r="S11" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T11" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="U11" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V11" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W11" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="X11" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="17"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1671,39 +1981,67 @@
       <c r="H12" s="7"/>
       <c r="I12" s="5"/>
       <c r="J12" s="12" t="str">
-        <f t="shared" ref="J12:Q12" si="7">IF(J$10="","",IF(J$10&gt;=1.67,"A+",IF(J$10&gt;=1.33,"A",IF(J$10&gt;=1,"B",IF(J$10&gt;=0.67,"C","D")))))</f>
+        <f t="shared" ref="J12:Q12" si="14">IF(J$10="","",IF(J$10&gt;=1.67,"A+",IF(J$10&gt;=1.33,"A",IF(J$10&gt;=1,"B",IF(J$10&gt;=0.67,"C","D")))))</f>
         <v/>
       </c>
       <c r="K12" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L12" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M12" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N12" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O12" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P12" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q12" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="14"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="R12" s="12" t="str">
+        <f t="shared" ref="R12:X12" si="15">IF(R$10="","",IF(R$10&gt;=1.67,"A+",IF(R$10&gt;=1.33,"A",IF(R$10&gt;=1,"B",IF(R$10&gt;=0.67,"C","D")))))</f>
+        <v/>
+      </c>
+      <c r="S12" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T12" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U12" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="V12" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="W12" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X12" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
